--- a/farm.xlsx
+++ b/farm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC5BC7-DD45-42F8-A752-3D1BB556C4F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866F234-1C3D-4DC5-85B9-022C5D89C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中证500_场外" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,10 +52,6 @@
   </si>
   <si>
     <t>2022.4.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,11 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.《资金转定投》为当月从生活费中投入到基金账户的金额。</t>
+    <t>解锁密码：LYF@houyi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁密码：LYF@houyi</t>
+    <t>4.《定投仓加减》+《安全仓加减》为当月从生活费中投入到基金账户的金额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -173,30 +182,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +941,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12082184" cy="5931552"/>
+    <xdr:ext cx="12082184" cy="6210299"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3">
@@ -940,8 +955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19117595" y="9769289"/>
-          <a:ext cx="12082184" cy="5931552"/>
+          <a:off x="19085578" y="9466730"/>
+          <a:ext cx="12082184" cy="6210299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1732,7 +1747,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>定投系数</a:t>
+            <a:t>风险系数</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
@@ -1920,7 +1935,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>。</a:t>
+            <a:t>。风险系数小于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时，应该停止投资并减仓，以将收益落袋。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0">
             <a:solidFill>
@@ -2782,3167 +2821,3186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="5" customWidth="1"/>
-    <col min="11" max="12" width="14.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="27.625" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="4" customWidth="1"/>
+    <col min="11" max="12" width="14.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="27.625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>IF(A8,C8+F7,0)</f>
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>IF(D8=0,0,IF(C8,D8*0.05,E7))</f>
         <v>25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f>D8-E8</f>
         <v>475</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f>0.5*(E8+G8)</f>
         <v>262.5</v>
       </c>
-      <c r="I8" s="2">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
         <f>IF(A8,_xlfn.IFS(I8&lt;10,2,I8&lt;20,1.8,I8&lt;30,1.6,I8&lt;40,1.4,I8&lt;50,1.2,I8=50,1,I8&lt;60,0.8,I8&lt;70,-0.5,I8&lt;80,-0.5,I8&lt;90,-0.5,I8&lt;=100,-1),0)</f>
-        <v>1.8</v>
-      </c>
-      <c r="K8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="2">
         <f>IF(J8&lt;0,0,H8*J8)</f>
-        <v>472.5</v>
-      </c>
-      <c r="L8" s="3">
-        <f>IF(J8=2,O7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <f>IF(J8&gt;=0,K8+L8,J8*P7)</f>
-        <v>472.5</v>
-      </c>
-      <c r="N8" s="3">
-        <f>IF(J8&gt;=0,H8*2-K8-L8,IF(J8&gt;=0,0,-J8*P7))</f>
-        <v>52.5</v>
-      </c>
-      <c r="O8" s="3">
-        <f>IF(A8,O7+N8,0)</f>
-        <v>52.5</v>
-      </c>
-      <c r="P8" s="3">
-        <f>IF(A8,IF(J8&gt;=0,M8+P7,P7+J8*P7),0)</f>
-        <v>472.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D67" si="0">IF(A9,C9+F8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ref="E9:E67" si="1">IF(D9=0,0,IF(C9,D9*0.05,E8))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F67" si="2">D9-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <f t="shared" ref="H9:H67" si="3">0.5*(E9+G9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" ref="J9:J67" si="4">IF(A9,_xlfn.IFS(I9&lt;10,2,I9&lt;20,1.8,I9&lt;30,1.6,I9&lt;40,1.4,I9&lt;50,1.2,I9=50,1,I9&lt;60,0.8,I9&lt;70,-0.5,I9&lt;80,-0.5,I9&lt;90,-0.5,I9&lt;=100,-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" ref="K9:K67" si="5">IF(J9&lt;0,0,H9*J9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <f>IF(J9=2,O8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <f>IF(J9&gt;=0,K9+L9,J9*P8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <f>IF(J9&gt;=0,H9*2-K9-L9,IF(J9&gt;=0,0,-J9*P8))</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <f>IF(A9,O8+N9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <f>IF(A9,IF(J9&gt;=0,M9+P8,P8+J9*P8),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L39" si="0">IF(J8=2,O7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M39" si="1">IF(J8&gt;=0,K8+L8,J8*P7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:N39" si="2">IF(J8&gt;=0,H8*2-K8-L8,IF(J8&gt;=0,0,-J8*P7))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O39" si="3">IF(A8,O7+N8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P39" si="4">IF(A8,IF(J8&gt;=0,M8+P7,P7+J8*P7),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D67" si="5">IF(A9,C9+F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E67" si="6">IF(D9=0,0,IF(C9,D9*0.05,E8))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F67" si="7">D9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:H67" si="8">0.5*(E9+G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9:J67" si="9">IF(A9,_xlfn.IFS(I9&lt;10,2,I9&lt;20,1.8,I9&lt;30,1.6,I9&lt;40,1.4,I9&lt;50,1.2,I9=50,1,I9&lt;60,0.8,I9&lt;70,-0.5,I9&lt;80,-0.5,I9&lt;90,-0.5,I9&lt;=100,-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9:K67" si="10">IF(J9&lt;0,0,H9*J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="N9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="3">
-        <f>IF(J10=2,O9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <f>IF(J10&gt;=0,K10+L10,J10*P9)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <f>IF(J10&gt;=0,H10*2-K10-L10,IF(J10&gt;=0,0,-J10*P9))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <f>IF(A10,O9+N10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <f>IF(A10,IF(J10&gt;=0,M10+P9,P9+J10*P9),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="E10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="N10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="P10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="3">
-        <f>IF(J11=2,O10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <f>IF(J11&gt;=0,K11+L11,J11*P10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <f>IF(J11&gt;=0,H11*2-K11-L11,IF(J11&gt;=0,0,-J11*P10))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <f>IF(A11,O10+N11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <f>IF(A11,IF(J11&gt;=0,M11+P10,P10+J11*P10),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="E11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="P11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="3">
-        <f>IF(J12=2,O11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <f>IF(J12&gt;=0,K12+L12,J12*P11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <f>IF(J12&gt;=0,H12*2-K12-L12,IF(J12&gt;=0,0,-J12*P11))</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <f>IF(A12,O11+N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <f>IF(A12,IF(J12&gt;=0,M12+P11,P11+J12*P11),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="E12" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="O12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="P12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13" s="3">
-        <f>IF(J13=2,O12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <f>IF(J13&gt;=0,K13+L13,J13*P12)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <f>IF(J13&gt;=0,H13*2-K13-L13,IF(J13&gt;=0,0,-J13*P12))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <f>IF(A13,O12+N13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <f>IF(A13,IF(J13&gt;=0,M13+P12,P12+J13*P12),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="E13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="P13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <f>IF(J14=2,O13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <f>IF(J14&gt;=0,K14+L14,J14*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <f>IF(J14&gt;=0,H14*2-K14-L14,IF(J14&gt;=0,0,-J14*P13))</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <f>IF(A14,O13+N14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <f>IF(A14,IF(J14&gt;=0,M14+P13,P13+J14*P13),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="E14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="O14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="P14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L15" s="3">
-        <f>IF(J15=2,O14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <f>IF(J15&gt;=0,K15+L15,J15*P14)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <f>IF(J15&gt;=0,H15*2-K15-L15,IF(J15&gt;=0,0,-J15*P14))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <f>IF(A15,O14+N15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <f>IF(A15,IF(J15&gt;=0,M15+P14,P14+J15*P14),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="E15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="O15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="P15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="3">
-        <f>IF(J16=2,O15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <f>IF(J16&gt;=0,K16+L16,J16*P15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <f>IF(J16&gt;=0,H16*2-K16-L16,IF(J16&gt;=0,0,-J16*P15))</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <f>IF(A16,O15+N16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <f>IF(A16,IF(J16&gt;=0,M16+P15,P15+J16*P15),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="E16" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="O16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="3">
-        <f>IF(J17=2,O16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <f>IF(J17&gt;=0,K17+L17,J17*P16)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <f>IF(J17&gt;=0,H17*2-K17-L17,IF(J17&gt;=0,0,-J17*P16))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <f>IF(A17,O16+N17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <f>IF(A17,IF(J17&gt;=0,M17+P16,P16+J17*P16),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="E17" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="O17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="3">
-        <f>IF(J18=2,O17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <f>IF(J18&gt;=0,K18+L18,J18*P17)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <f>IF(J18&gt;=0,H18*2-K18-L18,IF(J18&gt;=0,0,-J18*P17))</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <f>IF(A18,O17+N18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <f>IF(A18,IF(J18&gt;=0,M18+P17,P17+J18*P17),0)</f>
+      <c r="E18" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="N19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="O19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3">
+      <c r="P19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L19" s="3">
-        <f>IF(J19=2,O18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <f>IF(J19&gt;=0,K19+L19,J19*P18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <f>IF(J19&gt;=0,H19*2-K19-L19,IF(J19&gt;=0,0,-J19*P18))</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <f>IF(A19,O18+N19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <f>IF(A19,IF(J19&gt;=0,M19+P18,P18+J19*P18),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="E20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="N20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
+      <c r="O20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3">
+      <c r="P20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <f>IF(J20=2,O19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <f>IF(J20&gt;=0,K20+L20,J20*P19)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <f>IF(J20&gt;=0,H20*2-K20-L20,IF(J20&gt;=0,0,-J20*P19))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <f>IF(A20,O19+N20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <f>IF(A20,IF(J20&gt;=0,M20+P19,P19+J20*P19),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="E21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="3">
+      <c r="N21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="O21" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3">
+      <c r="P21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L21" s="3">
-        <f>IF(J21=2,O20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <f>IF(J21&gt;=0,K21+L21,J21*P20)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <f>IF(J21&gt;=0,H21*2-K21-L21,IF(J21&gt;=0,0,-J21*P20))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <f>IF(A21,O20+N21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <f>IF(A21,IF(J21&gt;=0,M21+P20,P20+J21*P20),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="E22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="M22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="N22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
+      <c r="O22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3">
+      <c r="P22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <f>IF(J22=2,O21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <f>IF(J22&gt;=0,K22+L22,J22*P21)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <f>IF(J22&gt;=0,H22*2-K22-L22,IF(J22&gt;=0,0,-J22*P21))</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <f>IF(A22,O21+N22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <f>IF(A22,IF(J22&gt;=0,M22+P21,P21+J22*P21),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="E23" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="N23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
+      <c r="O23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3">
+      <c r="P23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="3">
-        <f>IF(J23=2,O22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <f>IF(J23&gt;=0,K23+L23,J23*P22)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <f>IF(J23&gt;=0,H23*2-K23-L23,IF(J23&gt;=0,0,-J23*P22))</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <f>IF(A23,O22+N23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <f>IF(A23,IF(J23&gt;=0,M23+P22,P22+J23*P22),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="E24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="M24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="3">
+      <c r="N24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="O24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3">
+      <c r="P24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <f>IF(J24=2,O23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <f>IF(J24&gt;=0,K24+L24,J24*P23)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <f>IF(J24&gt;=0,H24*2-K24-L24,IF(J24&gt;=0,0,-J24*P23))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <f>IF(A24,O23+N24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <f>IF(A24,IF(J24&gt;=0,M24+P23,P23+J24*P23),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
+      <c r="E25" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="3">
+      <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="N25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="O25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3">
+      <c r="P25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K25" s="3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="3">
-        <f>IF(J25=2,O24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <f>IF(J25&gt;=0,K25+L25,J25*P24)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <f>IF(J25&gt;=0,H25*2-K25-L25,IF(J25&gt;=0,0,-J25*P24))</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <f>IF(A25,O24+N25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <f>IF(A25,IF(J25&gt;=0,M25+P24,P24+J25*P24),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="E26" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="3">
+      <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="N26" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
+      <c r="O26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="3">
+      <c r="P26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="3">
-        <f>IF(J26=2,O25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <f>IF(J26&gt;=0,K26+L26,J26*P25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <f>IF(J26&gt;=0,H26*2-K26-L26,IF(J26&gt;=0,0,-J26*P25))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <f>IF(A26,O25+N26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <f>IF(A26,IF(J26&gt;=0,M26+P25,P25+J26*P25),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="E27" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="M27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="N27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
+      <c r="O27" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
-        <f>IF(J27=2,O26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <f>IF(J27&gt;=0,K27+L27,J27*P26)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <f>IF(J27&gt;=0,H27*2-K27-L27,IF(J27&gt;=0,0,-J27*P26))</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <f>IF(A27,O26+N27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <f>IF(A27,IF(J27&gt;=0,M27+P26,P26+J27*P26),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="E28" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="3">
+      <c r="M28" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="N28" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
+      <c r="O28" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3">
+      <c r="P28" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K28" s="3">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L28" s="3">
-        <f>IF(J28=2,O27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <f>IF(J28&gt;=0,K28+L28,J28*P27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <f>IF(J28&gt;=0,H28*2-K28-L28,IF(J28&gt;=0,0,-J28*P27))</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <f>IF(A28,O27+N28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <f>IF(A28,IF(J28&gt;=0,M28+P27,P27+J28*P27),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
+      <c r="E29" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="3">
+      <c r="M29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="N29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="O29" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3">
+      <c r="P29" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K29" s="3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <f>IF(J29=2,O28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <f>IF(J29&gt;=0,K29+L29,J29*P28)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <f>IF(J29&gt;=0,H29*2-K29-L29,IF(J29&gt;=0,0,-J29*P28))</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <f>IF(A29,O28+N29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f>IF(A29,IF(J29&gt;=0,M29+P28,P28+J29*P28),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="E30" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="3">
+      <c r="M30" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="N30" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
+      <c r="O30" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3">
+      <c r="P30" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K30" s="3">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L30" s="3">
-        <f>IF(J30=2,O29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <f>IF(J30&gt;=0,K30+L30,J30*P29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <f>IF(J30&gt;=0,H30*2-K30-L30,IF(J30&gt;=0,0,-J30*P29))</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <f>IF(A30,O29+N30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <f>IF(A30,IF(J30&gt;=0,M30+P29,P29+J30*P29),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="E31" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="3">
+      <c r="M31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="N31" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
+      <c r="O31" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3">
+      <c r="P31" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="3">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L31" s="3">
-        <f>IF(J31=2,O30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <f>IF(J31&gt;=0,K31+L31,J31*P30)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <f>IF(J31&gt;=0,H31*2-K31-L31,IF(J31&gt;=0,0,-J31*P30))</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <f>IF(A31,O30+N31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <f>IF(A31,IF(J31&gt;=0,M31+P30,P30+J31*P30),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="E32" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="3">
+      <c r="M32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="N32" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
+      <c r="O32" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3">
+      <c r="P32" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="3">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <f>IF(J32=2,O31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <f>IF(J32&gt;=0,K32+L32,J32*P31)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <f>IF(J32&gt;=0,H32*2-K32-L32,IF(J32&gt;=0,0,-J32*P31))</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <f>IF(A32,O31+N32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <f>IF(A32,IF(J32&gt;=0,M32+P31,P31+J32*P31),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
+      <c r="E33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="3">
+      <c r="M33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="3">
+      <c r="N33" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
+      <c r="O33" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="3">
+      <c r="P33" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L33" s="3">
-        <f>IF(J33=2,O32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <f>IF(J33&gt;=0,K33+L33,J33*P32)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <f>IF(J33&gt;=0,H33*2-K33-L33,IF(J33&gt;=0,0,-J33*P32))</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <f>IF(A33,O32+N33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f>IF(A33,IF(J33&gt;=0,M33+P32,P32+J33*P32),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
+      <c r="E34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="3">
+      <c r="M34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="N34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
+      <c r="O34" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3">
+      <c r="P34" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="3">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L34" s="3">
-        <f>IF(J34=2,O33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <f>IF(J34&gt;=0,K34+L34,J34*P33)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <f>IF(J34&gt;=0,H34*2-K34-L34,IF(J34&gt;=0,0,-J34*P33))</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <f>IF(A34,O33+N34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <f>IF(A34,IF(J34&gt;=0,M34+P33,P33+J34*P33),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
+      <c r="E35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="3">
+      <c r="M35" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="3">
+      <c r="N35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
+      <c r="O35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3">
+      <c r="P35" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="3">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="3">
-        <f>IF(J35=2,O34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <f>IF(J35&gt;=0,K35+L35,J35*P34)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <f>IF(J35&gt;=0,H35*2-K35-L35,IF(J35&gt;=0,0,-J35*P34))</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <f>IF(A35,O34+N35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <f>IF(A35,IF(J35&gt;=0,M35+P34,P34+J35*P34),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
+      <c r="E36" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="3">
+      <c r="M36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="3">
+      <c r="N36" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
+      <c r="O36" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3">
+      <c r="P36" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K36" s="3">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="3">
-        <f>IF(J36=2,O35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <f>IF(J36&gt;=0,K36+L36,J36*P35)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <f>IF(J36&gt;=0,H36*2-K36-L36,IF(J36&gt;=0,0,-J36*P35))</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <f>IF(A36,O35+N36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <f>IF(A36,IF(J36&gt;=0,M36+P35,P35+J36*P35),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
+      <c r="E37" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="3">
+      <c r="M37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="3">
+      <c r="N37" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
+      <c r="O37" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="3">
+      <c r="P37" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K37" s="3">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L37" s="3">
-        <f>IF(J37=2,O36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <f>IF(J37&gt;=0,K37+L37,J37*P36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <f>IF(J37&gt;=0,H37*2-K37-L37,IF(J37&gt;=0,0,-J37*P36))</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <f>IF(A37,O36+N37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <f>IF(A37,IF(J37&gt;=0,M37+P36,P36+J37*P36),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
+      <c r="E38" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="3">
+      <c r="M38" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="3">
+      <c r="N38" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
+      <c r="O38" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="3">
+      <c r="P38" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K38" s="3">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <f>IF(J38=2,O37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <f>IF(J38&gt;=0,K38+L38,J38*P37)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <f>IF(J38&gt;=0,H38*2-K38-L38,IF(J38&gt;=0,0,-J38*P37))</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <f>IF(A38,O37+N38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <f>IF(A38,IF(J38&gt;=0,M38+P37,P37+J38*P37),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3">
+      <c r="E39" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="3">
+      <c r="M39" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="3">
+      <c r="N39" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3">
+      <c r="O39" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3">
+      <c r="P39" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="3">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="3">
-        <f>IF(J39=2,O38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <f>IF(J39&gt;=0,K39+L39,J39*P38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <f>IF(J39&gt;=0,H39*2-K39-L39,IF(J39&gt;=0,0,-J39*P38))</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <f>IF(A39,O38+N39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <f>IF(A39,IF(J39&gt;=0,M39+P38,P38+J39*P38),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
+      <c r="E40" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" ref="L40:L67" si="11">IF(J40=2,O39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" ref="M40:M67" si="12">IF(J40&gt;=0,K40+L40,J40*P39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ref="N40:N67" si="13">IF(J40&gt;=0,H40*2-K40-L40,IF(J40&gt;=0,0,-J40*P39))</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" ref="O40:O67" si="14">IF(A40,O39+N40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40:P67" si="15">IF(A40,IF(J40&gt;=0,M40+P39,P39+J40*P39),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L40" s="3">
-        <f>IF(J40=2,O39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <f>IF(J40&gt;=0,K40+L40,J40*P39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <f>IF(J40&gt;=0,H40*2-K40-L40,IF(J40&gt;=0,0,-J40*P39))</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <f>IF(A40,O39+N40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <f>IF(A40,IF(J40&gt;=0,M40+P39,P39+J40*P39),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="E41" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <f>IF(J41=2,O40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <f>IF(J41&gt;=0,K41+L41,J41*P40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <f>IF(J41&gt;=0,H41*2-K41-L41,IF(J41&gt;=0,0,-J41*P40))</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <f>IF(A41,O40+N41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <f>IF(A41,IF(J41&gt;=0,M41+P40,P40+J41*P40),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="E42" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L42" s="3">
-        <f>IF(J42=2,O41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <f>IF(J42&gt;=0,K42+L42,J42*P41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <f>IF(J42&gt;=0,H42*2-K42-L42,IF(J42&gt;=0,0,-J42*P41))</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <f>IF(A42,O41+N42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <f>IF(A42,IF(J42&gt;=0,M42+P41,P41+J42*P41),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="E43" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L43" s="3">
-        <f>IF(J43=2,O42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <f>IF(J43&gt;=0,K43+L43,J43*P42)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <f>IF(J43&gt;=0,H43*2-K43-L43,IF(J43&gt;=0,0,-J43*P42))</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <f>IF(A43,O42+N43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <f>IF(A43,IF(J43&gt;=0,M43+P42,P42+J43*P42),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="E44" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L44" s="3">
-        <f>IF(J44=2,O43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <f>IF(J44&gt;=0,K44+L44,J44*P43)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <f>IF(J44&gt;=0,H44*2-K44-L44,IF(J44&gt;=0,0,-J44*P43))</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <f>IF(A44,O43+N44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <f>IF(A44,IF(J44&gt;=0,M44+P43,P43+J44*P43),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="E45" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <f>IF(J45=2,O44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <f>IF(J45&gt;=0,K45+L45,J45*P44)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <f>IF(J45&gt;=0,H45*2-K45-L45,IF(J45&gt;=0,0,-J45*P44))</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <f>IF(A45,O44+N45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <f>IF(A45,IF(J45&gt;=0,M45+P44,P44+J45*P44),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="E46" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L46" s="3">
-        <f>IF(J46=2,O45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <f>IF(J46&gt;=0,K46+L46,J46*P45)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <f>IF(J46&gt;=0,H46*2-K46-L46,IF(J46&gt;=0,0,-J46*P45))</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <f>IF(A46,O45+N46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <f>IF(A46,IF(J46&gt;=0,M46+P45,P45+J46*P45),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="E47" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L47" s="3">
-        <f>IF(J47=2,O46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <f>IF(J47&gt;=0,K47+L47,J47*P46)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <f>IF(J47&gt;=0,H47*2-K47-L47,IF(J47&gt;=0,0,-J47*P46))</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <f>IF(A47,O46+N47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <f>IF(A47,IF(J47&gt;=0,M47+P46,P46+J47*P46),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="E48" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L48" s="3">
-        <f>IF(J48=2,O47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <f>IF(J48&gt;=0,K48+L48,J48*P47)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <f>IF(J48&gt;=0,H48*2-K48-L48,IF(J48&gt;=0,0,-J48*P47))</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <f>IF(A48,O47+N48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <f>IF(A48,IF(J48&gt;=0,M48+P47,P47+J48*P47),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="E49" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L49" s="3">
-        <f>IF(J49=2,O48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <f>IF(J49&gt;=0,K49+L49,J49*P48)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <f>IF(J49&gt;=0,H49*2-K49-L49,IF(J49&gt;=0,0,-J49*P48))</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <f>IF(A49,O48+N49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <f>IF(A49,IF(J49&gt;=0,M49+P48,P48+J49*P48),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
+      <c r="E50" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L50" s="3">
-        <f>IF(J50=2,O49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="3">
-        <f>IF(J50&gt;=0,K50+L50,J50*P49)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
-        <f>IF(J50&gt;=0,H50*2-K50-L50,IF(J50&gt;=0,0,-J50*P49))</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="3">
-        <f>IF(A50,O49+N50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="3">
-        <f>IF(A50,IF(J50&gt;=0,M50+P49,P49+J50*P49),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
+      <c r="E51" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L51" s="3">
-        <f>IF(J51=2,O50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="3">
-        <f>IF(J51&gt;=0,K51+L51,J51*P50)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="3">
-        <f>IF(J51&gt;=0,H51*2-K51-L51,IF(J51&gt;=0,0,-J51*P50))</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
-        <f>IF(A51,O50+N51,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <f>IF(A51,IF(J51&gt;=0,M51+P50,P50+J51*P50),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="E52" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L52" s="3">
-        <f>IF(J52=2,O51,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <f>IF(J52&gt;=0,K52+L52,J52*P51)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <f>IF(J52&gt;=0,H52*2-K52-L52,IF(J52&gt;=0,0,-J52*P51))</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <f>IF(A52,O51+N52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <f>IF(A52,IF(J52&gt;=0,M52+P51,P51+J52*P51),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
+      <c r="E53" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L53" s="3">
-        <f>IF(J53=2,O52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
-        <f>IF(J53&gt;=0,K53+L53,J53*P52)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <f>IF(J53&gt;=0,H53*2-K53-L53,IF(J53&gt;=0,0,-J53*P52))</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <f>IF(A53,O52+N53,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <f>IF(A53,IF(J53&gt;=0,M53+P52,P52+J53*P52),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="E54" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L54" s="3">
-        <f>IF(J54=2,O53,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <f>IF(J54&gt;=0,K54+L54,J54*P53)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <f>IF(J54&gt;=0,H54*2-K54-L54,IF(J54&gt;=0,0,-J54*P53))</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <f>IF(A54,O53+N54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <f>IF(A54,IF(J54&gt;=0,M54+P53,P53+J54*P53),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
+      <c r="E55" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L55" s="3">
-        <f>IF(J55=2,O54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
-        <f>IF(J55&gt;=0,K55+L55,J55*P54)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <f>IF(J55&gt;=0,H55*2-K55-L55,IF(J55&gt;=0,0,-J55*P54))</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="3">
-        <f>IF(A55,O54+N55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
-        <f>IF(A55,IF(J55&gt;=0,M55+P54,P54+J55*P54),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
+      <c r="E56" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L56" s="3">
-        <f>IF(J56=2,O55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
-        <f>IF(J56&gt;=0,K56+L56,J56*P55)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <f>IF(J56&gt;=0,H56*2-K56-L56,IF(J56&gt;=0,0,-J56*P55))</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="3">
-        <f>IF(A56,O55+N56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <f>IF(A56,IF(J56&gt;=0,M56+P55,P55+J56*P55),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="E57" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L57" s="3">
-        <f>IF(J57=2,O56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <f>IF(J57&gt;=0,K57+L57,J57*P56)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <f>IF(J57&gt;=0,H57*2-K57-L57,IF(J57&gt;=0,0,-J57*P56))</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <f>IF(A57,O56+N57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <f>IF(A57,IF(J57&gt;=0,M57+P56,P56+J57*P56),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="E58" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L58" s="3">
-        <f>IF(J58=2,O57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <f>IF(J58&gt;=0,K58+L58,J58*P57)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <f>IF(J58&gt;=0,H58*2-K58-L58,IF(J58&gt;=0,0,-J58*P57))</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <f>IF(A58,O57+N58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <f>IF(A58,IF(J58&gt;=0,M58+P57,P57+J58*P57),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="E59" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L59" s="3">
-        <f>IF(J59=2,O58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <f>IF(J59&gt;=0,K59+L59,J59*P58)</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <f>IF(J59&gt;=0,H59*2-K59-L59,IF(J59&gt;=0,0,-J59*P58))</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <f>IF(A59,O58+N59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <f>IF(A59,IF(J59&gt;=0,M59+P58,P58+J59*P58),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="E60" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L60" s="3">
-        <f>IF(J60=2,O59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <f>IF(J60&gt;=0,K60+L60,J60*P59)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <f>IF(J60&gt;=0,H60*2-K60-L60,IF(J60&gt;=0,0,-J60*P59))</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <f>IF(A60,O59+N60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <f>IF(A60,IF(J60&gt;=0,M60+P59,P59+J60*P59),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="E61" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L61" s="3">
-        <f>IF(J61=2,O60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <f>IF(J61&gt;=0,K61+L61,J61*P60)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <f>IF(J61&gt;=0,H61*2-K61-L61,IF(J61&gt;=0,0,-J61*P60))</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <f>IF(A61,O60+N61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <f>IF(A61,IF(J61&gt;=0,M61+P60,P60+J61*P60),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="E62" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L62" s="3">
-        <f>IF(J62=2,O61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <f>IF(J62&gt;=0,K62+L62,J62*P61)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <f>IF(J62&gt;=0,H62*2-K62-L62,IF(J62&gt;=0,0,-J62*P61))</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <f>IF(A62,O61+N62,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <f>IF(A62,IF(J62&gt;=0,M62+P61,P61+J62*P61),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
+      <c r="E63" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L63" s="3">
-        <f>IF(J63=2,O62,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
-        <f>IF(J63&gt;=0,K63+L63,J63*P62)</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="3">
-        <f>IF(J63&gt;=0,H63*2-K63-L63,IF(J63&gt;=0,0,-J63*P62))</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="3">
-        <f>IF(A63,O62+N63,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="3">
-        <f>IF(A63,IF(J63&gt;=0,M63+P62,P62+J63*P62),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
+      <c r="E64" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L64" s="3">
-        <f>IF(J64=2,O63,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <f>IF(J64&gt;=0,K64+L64,J64*P63)</f>
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
-        <f>IF(J64&gt;=0,H64*2-K64-L64,IF(J64&gt;=0,0,-J64*P63))</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
-        <f>IF(A64,O63+N64,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="3">
-        <f>IF(A64,IF(J64&gt;=0,M64+P63,P63+J64*P63),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
+      <c r="E65" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L65" s="3">
-        <f>IF(J65=2,O64,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <f>IF(J65&gt;=0,K65+L65,J65*P64)</f>
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <f>IF(J65&gt;=0,H65*2-K65-L65,IF(J65&gt;=0,0,-J65*P64))</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <f>IF(A65,O64+N65,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="3">
-        <f>IF(A65,IF(J65&gt;=0,M65+P64,P64+J65*P64),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="E66" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L66" s="3">
-        <f>IF(J66=2,O65,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <f>IF(J66&gt;=0,K66+L66,J66*P65)</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <f>IF(J66&gt;=0,H66*2-K66-L66,IF(J66&gt;=0,0,-J66*P65))</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <f>IF(A66,O65+N66,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <f>IF(A66,IF(J66&gt;=0,M66+P65,P65+J66*P65),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
-        <f>IF(J67=2,O66,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="3">
-        <f>IF(J67&gt;=0,K67+L67,J67*P66)</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="3">
-        <f>IF(J67&gt;=0,H67*2-K67-L67,IF(J67&gt;=0,0,-J67*P66))</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="3">
-        <f>IF(A67,O66+N67,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="3">
-        <f>IF(A67,IF(J67&gt;=0,M67+P66,P66+J67*P66),0)</f>
+      <c r="E67" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HCo5fDaTsG8BrgtlgcRxpiwFBpFHoQZ4tjL+byRXOUfq5CTD6y23N1e+hWRP0p9/2Mn9/fcX3BULqwhbpUFVUg==" saltValue="HdvEiDRxKwWTckK9R6X9AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8vGl0tF/rPuiIVlqWGsH2pf5mfz0j1+K1ICI7ECHZnawbmdseQAYK/zxkQawsO2IZ9lyBCkpag4fe2PBTcYvIQ==" saltValue="tlVhoF76IbNb2RlHxoo0Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C1:C1048576" name="新增存款"/>
     <protectedRange sqref="A1:B1048576" name="定投信息"/>
@@ -5950,6 +6008,12 @@
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -5960,12 +6024,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M8:M67">

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866F234-1C3D-4DC5-85B9-022C5D89C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64443672-EEEE-4D93-88A5-060B62B96063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="中证500_场外" sheetId="1" r:id="rId1"/>
+    <sheet name="中证500_160119" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -182,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,20 +189,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,7 +228,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>89806</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>189138</xdr:rowOff>
@@ -936,7 +930,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>13166</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
@@ -2822,10 +2816,10 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2836,9 +2830,7 @@
     <col min="4" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="4" customWidth="1"/>
+    <col min="7" max="10" width="11.75" style="4" customWidth="1"/>
     <col min="11" max="12" width="14.75" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
@@ -2873,72 +2865,72 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2969,16 +2961,16 @@
         <f>0.5*(E8+G8)</f>
         <v>262.5</v>
       </c>
-      <c r="I8" s="1">
-        <v>100</v>
+      <c r="I8" s="7">
+        <v>3</v>
       </c>
       <c r="J8" s="2">
         <f>IF(A8,_xlfn.IFS(I8&lt;10,2,I8&lt;20,1.8,I8&lt;30,1.6,I8&lt;40,1.4,I8&lt;50,1.2,I8=50,1,I8&lt;60,0.8,I8&lt;70,-0.5,I8&lt;80,-0.5,I8&lt;90,-0.5,I8&lt;=100,-1),0)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="2">
         <f>IF(J8&lt;0,0,H8*J8)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ref="L8:L39" si="0">IF(J8=2,O7,0)</f>
@@ -2986,7 +2978,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" ref="M8:M39" si="1">IF(J8&gt;=0,K8+L8,J8*P7)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ref="N8:N39" si="2">IF(J8&gt;=0,H8*2-K8-L8,IF(J8&gt;=0,0,-J8*P7))</f>
@@ -2998,7 +2990,7 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P39" si="4">IF(A8,IF(J8&gt;=0,M8+P7,P7+J8*P7),0)</f>
-        <v>0</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3020,7 +3012,7 @@
         <f t="shared" ref="H9:H67" si="8">0.5*(E9+G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="2">
         <f t="shared" ref="J9:J67" si="9">IF(A9,_xlfn.IFS(I9&lt;10,2,I9&lt;20,1.8,I9&lt;30,1.6,I9&lt;40,1.4,I9&lt;50,1.2,I9=50,1,I9&lt;60,0.8,I9&lt;70,-0.5,I9&lt;80,-0.5,I9&lt;90,-0.5,I9&lt;=100,-1),0)</f>
         <v>0</v>
@@ -3070,7 +3062,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3120,7 +3112,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3170,7 +3162,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3220,7 +3212,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3270,7 +3262,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3320,7 +3312,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3370,7 +3362,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3420,7 +3412,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3470,7 +3462,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3521,7 +3513,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3572,7 +3564,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3623,7 +3615,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3674,7 +3666,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3725,7 +3717,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3776,7 +3768,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3827,7 +3819,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3878,7 +3870,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3929,7 +3921,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3980,7 +3972,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4031,7 +4023,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4082,7 +4074,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4133,7 +4125,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4184,7 +4176,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4235,7 +4227,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4286,7 +4278,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4337,7 +4329,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4388,7 +4380,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4439,7 +4431,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I37" s="6"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4490,7 +4482,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4541,7 +4533,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I39" s="6"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4592,7 +4584,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4643,7 +4635,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I41" s="6"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4694,7 +4686,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I42" s="6"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4745,7 +4737,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I43" s="6"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4796,7 +4788,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I44" s="6"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4847,7 +4839,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I45" s="6"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4898,7 +4890,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I46" s="6"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4949,7 +4941,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I47" s="6"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5000,7 +4992,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I48" s="6"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5051,7 +5043,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I49" s="6"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5102,7 +5094,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I50" s="6"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5153,7 +5145,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5204,7 +5196,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5255,7 +5247,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I53" s="6"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5306,7 +5298,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I54" s="6"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5357,7 +5349,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I55" s="6"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5408,7 +5400,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I56" s="6"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5459,7 +5451,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I57" s="6"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5510,7 +5502,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I58" s="1"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5561,7 +5553,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I59" s="1"/>
+      <c r="I59" s="7"/>
       <c r="J59" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5612,7 +5604,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I60" s="1"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5663,7 +5655,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5714,7 +5706,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I62" s="1"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5765,7 +5757,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5816,7 +5808,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5867,7 +5859,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I65" s="1"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5918,7 +5910,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5969,7 +5961,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6000,7 +5992,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8vGl0tF/rPuiIVlqWGsH2pf5mfz0j1+K1ICI7ECHZnawbmdseQAYK/zxkQawsO2IZ9lyBCkpag4fe2PBTcYvIQ==" saltValue="tlVhoF76IbNb2RlHxoo0Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C1:C1048576" name="新增存款"/>
     <protectedRange sqref="A1:B1048576" name="定投信息"/>
@@ -6008,12 +5999,6 @@
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
   <mergeCells count="16">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -6024,6 +6009,12 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M8:M67">

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64443672-EEEE-4D93-88A5-060B62B96063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB9848B-0238-42FB-A808-F21C7F597E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>增量资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投基数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,30 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资金转定投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投仓加减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投仓结余（定投持仓）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全仓转定投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全仓加减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全仓结余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.绿色表项为每月可修改表项。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,13 +81,86 @@
     <t>风险系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>确认金额/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投仓加减/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全仓加减/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投仓结余（定投持仓）/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全仓结余/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认净值/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投基数/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金转定投/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全仓转定投/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓金额/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓份额/份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本单价/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认份额/份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.每次实际交易后，填写《确认金额》、《确认净值》、《手续费》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际定投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.《成本单价》按平均成本法计算：仓内收益根据份额分配，赎回时将部分收益带出（已考虑交易手续费造成的成本上升）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -141,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,20 +243,36 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,9 +295,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>89806</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>189138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8124826" cy="7296151"/>
@@ -930,10 +997,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13166</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>82439</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88426</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12082184" cy="6210299"/>
     <xdr:sp macro="" textlink="">
@@ -949,7 +1016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19085578" y="9466730"/>
+          <a:off x="30077530" y="10652517"/>
           <a:ext cx="12082184" cy="6210299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2813,13 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2830,445 +2894,297 @@
     <col min="4" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
-    <col min="7" max="10" width="11.75" style="4" customWidth="1"/>
-    <col min="11" max="12" width="14.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="27.625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="4" customWidth="1"/>
+    <col min="13" max="14" width="18.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="4" customWidth="1"/>
+    <col min="16" max="16" width="33.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="17.125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="14.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="R10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="N11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="R11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="T11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2">
+        <f>IF(A13,C13+F12,0)</f>
+        <v>500</v>
+      </c>
+      <c r="E13" s="2">
+        <f>IF(D13=0,0,IF(C13,D13*0.05,E12))</f>
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13-E13</f>
+        <v>475</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <f>0.5*(E13+G13)</f>
+        <v>262.5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <f>IF(A13,_xlfn.IFS(I13&lt;10,2,I13&lt;20,1.8,I13&lt;30,1.6,I13&lt;40,1.4,I13&lt;50,1.2,I13=50,1,I13&lt;60,0.8,I13&lt;70,-0.5,I13&lt;80,-0.5,I13&lt;90,-0.5,I13&lt;=100,-1),0)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>500</v>
-      </c>
-      <c r="D8" s="2">
-        <f>IF(A8,C8+F7,0)</f>
-        <v>500</v>
-      </c>
-      <c r="E8" s="2">
-        <f>IF(D8=0,0,IF(C8,D8*0.05,E7))</f>
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <f>D8-E8</f>
-        <v>475</v>
-      </c>
-      <c r="G8" s="2">
-        <v>500</v>
-      </c>
-      <c r="H8" s="2">
-        <f>0.5*(E8+G8)</f>
-        <v>262.5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <f>IF(A8,_xlfn.IFS(I8&lt;10,2,I8&lt;20,1.8,I8&lt;30,1.6,I8&lt;40,1.4,I8&lt;50,1.2,I8=50,1,I8&lt;60,0.8,I8&lt;70,-0.5,I8&lt;80,-0.5,I8&lt;90,-0.5,I8&lt;=100,-1),0)</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <f>IF(J8&lt;0,0,H8*J8)</f>
+      <c r="K13" s="2">
+        <f>IF(J13&lt;0,0,H13*J13)</f>
         <v>525</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8:L39" si="0">IF(J8=2,O7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" ref="M8:M39" si="1">IF(J8&gt;=0,K8+L8,J8*P7)</f>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:L44" si="0">IF(J13=2,O12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:M44" si="1">IF(J13&gt;=0,K13+L13,J13*P12)</f>
         <v>525</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" ref="N8:N39" si="2">IF(J8&gt;=0,H8*2-K8-L8,IF(J8&gt;=0,0,-J8*P7))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:O39" si="3">IF(A8,O7+N8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" ref="P8:P39" si="4">IF(A8,IF(J8&gt;=0,M8+P7,P7+J8*P7),0)</f>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N44" si="2">IF(J13&gt;=0,H13*2-K13-L13,IF(J13&gt;=0,0,-J13*P12))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:O44" si="3">IF(A13,O12+N13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:P44" si="4">IF(A13,IF(J13&gt;=0,M13+P12,P12+J13*P12),0)</f>
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:D67" si="5">IF(A9,C9+F8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9:E67" si="6">IF(D9=0,0,IF(C9,D9*0.05,E8))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:F67" si="7">D9-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <f t="shared" ref="H9:H67" si="8">0.5*(E9+G9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2">
-        <f t="shared" ref="J9:J67" si="9">IF(A9,_xlfn.IFS(I9&lt;10,2,I9&lt;20,1.8,I9&lt;30,1.6,I9&lt;40,1.4,I9&lt;50,1.2,I9=50,1,I9&lt;60,0.8,I9&lt;70,-0.5,I9&lt;80,-0.5,I9&lt;90,-0.5,I9&lt;=100,-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9:K67" si="10">IF(J9&lt;0,0,H9*J9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="R13" s="8">
+        <v>525</v>
+      </c>
+      <c r="S13" s="15">
+        <v>1.6087</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="U13" s="8">
+        <f>(R13-T13)/S13</f>
+        <v>325.9588487598682</v>
+      </c>
+      <c r="V13" s="8">
+        <f>R13+V12</f>
+        <v>525</v>
+      </c>
+      <c r="W13" s="8">
+        <f>U13+W12</f>
+        <v>325.9588487598682</v>
+      </c>
+      <c r="X13" s="15">
+        <f>V13/W13</f>
+        <v>1.6106327593111736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D14:D72" si="5">IF(A14,C14+F13,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E14:E72" si="6">IF(D14=0,0,IF(C14,D14*0.05,E13))</f>
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
+        <f t="shared" ref="F14:F72" si="7">D14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H14:H72" si="8">0.5*(E14+G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J14:J72" si="9">IF(A14,_xlfn.IFS(I14&lt;10,2,I14&lt;20,1.8,I14&lt;30,1.6,I14&lt;40,1.4,I14&lt;50,1.2,I14=50,1,I14&lt;60,0.8,I14&lt;70,-0.5,I14&lt;80,-0.5,I14&lt;90,-0.5,I14&lt;=100,-1),0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K14:K72" si="10">IF(J14&lt;0,0,H14*J14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="2">
@@ -3291,8 +3207,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="8"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -3341,8 +3262,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="8"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -3391,8 +3317,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="8"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -3441,8 +3372,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="8"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -3491,10 +3427,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="8"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
         <f t="shared" si="5"/>
@@ -3542,10 +3482,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="8"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <f t="shared" si="5"/>
@@ -3593,10 +3537,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="8"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <f t="shared" si="5"/>
@@ -3644,10 +3592,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="8"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <f t="shared" si="5"/>
@@ -3695,10 +3647,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="8"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <f t="shared" si="5"/>
@@ -3746,8 +3702,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="8"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3798,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -3849,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -3900,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3951,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -4002,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -4053,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -4104,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -4155,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -4206,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -4257,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -4308,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -4359,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -4410,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -4461,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -4512,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -4563,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -4594,27 +4555,27 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ref="L40:L67" si="11">IF(J40=2,O39,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" ref="M40:M67" si="12">IF(J40&gt;=0,K40+L40,J40*P39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" ref="N40:N67" si="13">IF(J40&gt;=0,H40*2-K40-L40,IF(J40&gt;=0,0,-J40*P39))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" ref="O40:O67" si="14">IF(A40,O39+N40,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" ref="P40:P67" si="15">IF(A40,IF(J40&gt;=0,M40+P39,P39+J40*P39),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -4645,27 +4606,27 @@
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -4696,28 +4657,28 @@
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
@@ -4747,28 +4708,28 @@
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
@@ -4798,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
@@ -4849,28 +4810,28 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L45:L72" si="11">IF(J45=2,O44,0)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M45:M72" si="12">IF(J45&gt;=0,K45+L45,J45*P44)</f>
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N45:N72" si="13">IF(J45&gt;=0,H45*2-K45-L45,IF(J45&gt;=0,0,-J45*P44))</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="O45:O72" si="14">IF(A45,O44+N45,0)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+        <f t="shared" ref="P45:P72" si="15">IF(A45,IF(J45&gt;=0,M45+P44,P44+J45*P44),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
@@ -4920,8 +4881,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
@@ -4971,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -5022,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -5073,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -5124,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -5175,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -5226,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -5277,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -5328,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -5379,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -5430,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -5481,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -5502,7 +5463,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I58" s="7"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5532,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -5553,7 +5514,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5583,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -5604,7 +5565,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I60" s="7"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5634,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -5655,7 +5616,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I61" s="7"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5685,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -5706,7 +5667,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I62" s="7"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5736,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -5752,7 +5713,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5787,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -5803,7 +5764,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5838,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -5854,7 +5815,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5889,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -5905,7 +5866,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5940,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -5956,7 +5917,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5991,34 +5952,298 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C1:C1048576" name="新增存款"/>
-    <protectedRange sqref="A1:B1048576" name="定投信息"/>
+    <protectedRange sqref="A10 C1:C9 C11:C1048576" name="新增存款"/>
+    <protectedRange sqref="B1:B1048576 A1:A9 A11:A1048576" name="定投信息"/>
     <protectedRange sqref="I1:I1048576" name="指数温度"/>
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
-  <mergeCells count="16">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+  <mergeCells count="25">
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M8:M67">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="M13:M72">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6031,8 +6256,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I67">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="I13:I72">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6043,8 +6268,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="O1:O9 O11:O1048576">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6057,8 +6282,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="P1:P9 P11:P1048576">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6071,8 +6296,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="N1:N9 N11:N1048576">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6085,7 +6310,87 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1:K9 K11:K1048576">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4453E183-5155-4655-A6DA-15CFBEEE45EB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:W13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD578D42-D248-41E6-8867-171419E0C1B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0EEB6D76-E200-49CC-8648-E25CB89357F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{385EE4F0-590B-464E-9258-7E3CD62EEE09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:X12">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6094,7 +6399,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4453E183-5155-4655-A6DA-15CFBEEE45EB}</x14:id>
+          <x14:id>{650EE246-9804-4F32-8644-29A83D9BA5A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6116,7 +6421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M8:M67</xm:sqref>
+          <xm:sqref>M13:M72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{158EB98C-D73B-4780-B973-017C1CA10A3E}">
@@ -6129,7 +6434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>O1:O9 O11:O1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0829BEA7-CF40-4BC8-9C31-ADE375B5E5BD}">
@@ -6142,7 +6447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>P1:P9 P11:P1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5183630E-C93D-42D1-A3B8-CA7390713A1B}">
@@ -6155,7 +6460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N1:N1048576</xm:sqref>
+          <xm:sqref>N1:N9 N11:N1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4453E183-5155-4655-A6DA-15CFBEEE45EB}">
@@ -6168,7 +6473,59 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K1:K1048576</xm:sqref>
+          <xm:sqref>K1:K9 K11:K1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD578D42-D248-41E6-8867-171419E0C1B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V13:W13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0EEB6D76-E200-49CC-8648-E25CB89357F3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:negativeBorderColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{385EE4F0-590B-464E-9258-7E3CD62EEE09}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:negativeBorderColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{650EE246-9804-4F32-8644-29A83D9BA5A5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:negativeBorderColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V11:X12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB9848B-0238-42FB-A808-F21C7F597E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09F256-6194-42DB-94AA-4D82825969AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>指数温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.4.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,16 +149,49 @@
     <t>6.《成本单价》按平均成本法计算：仓内收益根据份额分配，赎回时将部分收益带出（已考虑交易手续费造成的成本上升）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>净现金流量/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计现值/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部收益率/%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净现金流现值/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余持仓金额/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余持仓现值/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投收益率计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.《内部收益率》计算方法：输入《日期》及《剩余持仓金额》；使用数据-预测-模拟分析-单变量求解计算内部收益率，目标单元格：当前日期的《累计现值》，目标值：0，可变单元格：AE14。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="183" formatCode="yyyy\.m\.d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +207,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -224,16 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,36 +276,62 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,9 +354,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>89806</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>189138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8124826" cy="7296151"/>
@@ -997,9 +1056,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>82439</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>88426</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12082184" cy="6210299"/>
@@ -2880,3369 +2939,3509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:AE73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="12" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="4" customWidth="1"/>
-    <col min="13" max="14" width="18.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="4" customWidth="1"/>
-    <col min="16" max="16" width="33.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="17.125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="13.125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="17.125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="15.875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="14.5" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="7" customWidth="1"/>
+    <col min="9" max="10" width="12" style="7" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="7" customWidth="1"/>
+    <col min="13" max="14" width="18.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="33.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="6"/>
+    <col min="18" max="18" width="17.125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="15.875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="14.5" style="6" customWidth="1"/>
+    <col min="25" max="25" width="9" style="6"/>
+    <col min="26" max="26" width="17.75" style="6" customWidth="1"/>
+    <col min="27" max="29" width="22.125" style="7" customWidth="1"/>
+    <col min="30" max="30" width="17.75" style="6" customWidth="1"/>
+    <col min="31" max="31" width="18" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="K12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="R10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="AA12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="B14" s="10">
+        <v>44664</v>
+      </c>
+      <c r="C14" s="4">
+        <v>500</v>
+      </c>
+      <c r="D14" s="4">
+        <f>IF(A14,C14+F13,0)</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="4">
+        <f>IF(D14=0,0,IF(C14,D14*0.05,E13))</f>
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <f>D14-E14</f>
+        <v>475</v>
+      </c>
+      <c r="G14" s="4">
+        <v>500</v>
+      </c>
+      <c r="H14" s="4">
+        <f>0.5*(E14+G14)</f>
+        <v>262.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <f>IF(A14,_xlfn.IFS(I14&lt;10,2,I14&lt;20,1.8,I14&lt;30,1.6,I14&lt;40,1.4,I14&lt;50,1.2,I14=50,1,I14&lt;60,0.8,I14&lt;70,-0.5,I14&lt;80,-0.5,I14&lt;90,-0.5,I14&lt;=100,-1),0)</f>
         <v>2</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>500</v>
-      </c>
-      <c r="D13" s="2">
-        <f>IF(A13,C13+F12,0)</f>
-        <v>500</v>
-      </c>
-      <c r="E13" s="2">
-        <f>IF(D13=0,0,IF(C13,D13*0.05,E12))</f>
-        <v>25</v>
-      </c>
-      <c r="F13" s="2">
-        <f>D13-E13</f>
-        <v>475</v>
-      </c>
-      <c r="G13" s="2">
-        <v>500</v>
-      </c>
-      <c r="H13" s="2">
-        <f>0.5*(E13+G13)</f>
-        <v>262.5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2">
-        <f>IF(A13,_xlfn.IFS(I13&lt;10,2,I13&lt;20,1.8,I13&lt;30,1.6,I13&lt;40,1.4,I13&lt;50,1.2,I13=50,1,I13&lt;60,0.8,I13&lt;70,-0.5,I13&lt;80,-0.5,I13&lt;90,-0.5,I13&lt;=100,-1),0)</f>
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <f>IF(J13&lt;0,0,H13*J13)</f>
+      <c r="K14" s="4">
+        <f>IF(J14&lt;0,0,H14*J14)</f>
         <v>525</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13:L44" si="0">IF(J13=2,O12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" ref="M13:M44" si="1">IF(J13&gt;=0,K13+L13,J13*P12)</f>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14:L45" si="0">IF(J14=2,O13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14:M45" si="1">IF(J14&gt;=0,K14+L14,J14*P13)</f>
         <v>525</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13:N44" si="2">IF(J13&gt;=0,H13*2-K13-L13,IF(J13&gt;=0,0,-J13*P12))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:O44" si="3">IF(A13,O12+N13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" ref="P13:P44" si="4">IF(A13,IF(J13&gt;=0,M13+P12,P12+J13*P12),0)</f>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14:N45" si="2">IF(J14&gt;=0,H14*2-K14-L14,IF(J14&gt;=0,0,-J14*P13))</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" ref="O14:O45" si="3">IF(A14,O13+N14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P45" si="4">IF(A14,IF(J14&gt;=0,M14+P13,P13+J14*P13),0)</f>
         <v>525</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R14" s="4">
         <v>525</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S14" s="5">
         <v>1.6087</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T14" s="4">
         <v>0.63</v>
       </c>
-      <c r="U13" s="8">
-        <f>(R13-T13)/S13</f>
+      <c r="U14" s="4">
+        <f>(R14-T14)/S14</f>
         <v>325.9588487598682</v>
       </c>
-      <c r="V13" s="8">
-        <f>R13+V12</f>
+      <c r="V14" s="4">
+        <f>R14+V13</f>
         <v>525</v>
       </c>
-      <c r="W13" s="8">
-        <f>U13+W12</f>
+      <c r="W14" s="4">
+        <f>U14+W13</f>
         <v>325.9588487598682</v>
       </c>
-      <c r="X13" s="15">
-        <f>V13/W13</f>
+      <c r="X14" s="5">
+        <f>V14/W14</f>
         <v>1.6106327593111736</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D72" si="5">IF(A14,C14+F13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E72" si="6">IF(D14=0,0,IF(C14,D14*0.05,E13))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14:F72" si="7">D14-E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <f t="shared" ref="H14:H72" si="8">0.5*(E14+G14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2">
-        <f t="shared" ref="J14:J72" si="9">IF(A14,_xlfn.IFS(I14&lt;10,2,I14&lt;20,1.8,I14&lt;30,1.6,I14&lt;40,1.4,I14&lt;50,1.2,I14=50,1,I14&lt;60,0.8,I14&lt;70,-0.5,I14&lt;80,-0.5,I14&lt;90,-0.5,I14&lt;=100,-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" ref="K14:K72" si="10">IF(J14&lt;0,0,H14*J14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="Z14" s="4">
+        <f>-R14</f>
+        <v>-525</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>Z14/((1+$AE$14/100)^(_xlfn.DAYS(B14,$B$14)/365))</f>
+        <v>-525</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>AB14/((1+$AE$14/100)^(_xlfn.DAYS(B14,$B$14)/365))</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>AD13+AA14+AC14</f>
+        <v>-525</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>22.86269665982665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D73" si="5">IF(A15,C15+F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E73" si="6">IF(D15=0,0,IF(C15,D15*0.05,E14))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:F73" si="7">D15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <f t="shared" ref="H15:H73" si="8">0.5*(E15+G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:J73" si="9">IF(A15,_xlfn.IFS(I15&lt;10,2,I15&lt;20,1.8,I15&lt;30,1.6,I15&lt;40,1.4,I15&lt;50,1.2,I15=50,1,I15&lt;60,0.8,I15&lt;70,-0.5,I15&lt;80,-0.5,I15&lt;90,-0.5,I15&lt;=100,-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:K73" si="10">IF(J15&lt;0,0,H15*J15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O15" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P15" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="Z15" s="4">
+        <f t="shared" ref="Z15:Z16" si="11">-R15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>Z15/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>526.78</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>AB15/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
+        <v>525.00006773304256</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" ref="AD15:AD16" si="12">AD14+AA15+AC15</f>
+        <v>6.7733042556028522E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2">
+      <c r="I16" s="2"/>
+      <c r="J16" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O16" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P16" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="Z16" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>Z16/((1+$AE$14/100)^(_xlfn.DAYS(B16,$B$14)/365))</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4">
+        <f t="shared" si="12"/>
+        <v>6.7733042556028522E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="2">
+      <c r="I17" s="2"/>
+      <c r="J17" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O17" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P17" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O19" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="R19" s="11"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2">
+      <c r="I20" s="2"/>
+      <c r="J20" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P20" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2">
+      <c r="I21" s="2"/>
+      <c r="J21" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2">
+      <c r="I22" s="2"/>
+      <c r="J22" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O22" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P22" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2">
+      <c r="G23" s="2"/>
+      <c r="H23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="2">
+      <c r="I23" s="2"/>
+      <c r="J23" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O23" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P23" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2">
+      <c r="G24" s="2"/>
+      <c r="H24" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="2">
+      <c r="I24" s="2"/>
+      <c r="J24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N24" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O24" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P24" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-    </row>
-    <row r="24" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="2">
+      <c r="I25" s="2"/>
+      <c r="J25" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O25" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P25" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+    <row r="26" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2">
+      <c r="G26" s="2"/>
+      <c r="H26" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="2">
+      <c r="I26" s="2"/>
+      <c r="J26" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N26" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O26" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P26" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+    <row r="27" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2">
+      <c r="G27" s="2"/>
+      <c r="H27" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="2">
+      <c r="I27" s="2"/>
+      <c r="J27" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N27" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O27" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P27" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+    <row r="28" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2">
+      <c r="G28" s="2"/>
+      <c r="H28" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="2">
+      <c r="I28" s="2"/>
+      <c r="J28" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N28" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O28" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P28" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+    <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2">
+      <c r="G29" s="2"/>
+      <c r="H29" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="2">
+      <c r="I29" s="2"/>
+      <c r="J29" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N29" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O29" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P29" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+    <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="2">
+      <c r="I30" s="2"/>
+      <c r="J30" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K30" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N30" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O30" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P30" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
+    <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2">
+      <c r="G31" s="2"/>
+      <c r="H31" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="2">
+      <c r="I31" s="2"/>
+      <c r="J31" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N31" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O31" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P31" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
+    <row r="32" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="2">
+      <c r="I32" s="2"/>
+      <c r="J32" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N32" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O32" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P32" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
+    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="2">
+      <c r="I33" s="2"/>
+      <c r="J33" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M33" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N33" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O33" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P33" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
+    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="2">
+      <c r="I34" s="2"/>
+      <c r="J34" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K34" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M34" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N34" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O34" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P34" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
+    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2">
+      <c r="G35" s="2"/>
+      <c r="H35" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="2">
+      <c r="I35" s="2"/>
+      <c r="J35" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K35" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M35" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N35" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O35" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P35" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
+    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2">
+      <c r="G36" s="2"/>
+      <c r="H36" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="2">
+      <c r="I36" s="2"/>
+      <c r="J36" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K36" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M36" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N36" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O36" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P36" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
+    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2">
+      <c r="G37" s="2"/>
+      <c r="H37" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="2">
+      <c r="I37" s="2"/>
+      <c r="J37" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M37" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N37" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O37" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P37" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2">
+      <c r="G38" s="2"/>
+      <c r="H38" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="2">
+      <c r="I38" s="2"/>
+      <c r="J38" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K38" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M38" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N38" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O38" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P38" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
+    <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2">
+      <c r="G39" s="2"/>
+      <c r="H39" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="2">
+      <c r="I39" s="2"/>
+      <c r="J39" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K39" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N39" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O39" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P39" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2">
+      <c r="G40" s="2"/>
+      <c r="H40" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="2">
+      <c r="I40" s="2"/>
+      <c r="J40" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N40" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O40" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P40" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
+    <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2">
+      <c r="G41" s="2"/>
+      <c r="H41" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="2">
+      <c r="I41" s="2"/>
+      <c r="J41" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K41" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M41" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N41" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O41" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P41" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
+    <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="2">
+      <c r="G42" s="2"/>
+      <c r="H42" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="2">
+      <c r="I42" s="2"/>
+      <c r="J42" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K42" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M42" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N42" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O42" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P42" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
+    <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="2">
+      <c r="G43" s="2"/>
+      <c r="H43" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="2">
+      <c r="I43" s="2"/>
+      <c r="J43" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K43" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M43" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N43" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O43" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P43" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
+    <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E44" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F44" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="2">
+      <c r="G44" s="2"/>
+      <c r="H44" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="2">
+      <c r="I44" s="2"/>
+      <c r="J44" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K44" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M44" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N44" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O44" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P44" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
+    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="2">
+      <c r="G45" s="2"/>
+      <c r="H45" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="2">
+      <c r="I45" s="2"/>
+      <c r="J45" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K45" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M45" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N45" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O45" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P45" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
+    <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E46" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F46" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="2">
+      <c r="G46" s="2"/>
+      <c r="H46" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="2">
+      <c r="I46" s="2"/>
+      <c r="J46" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K46" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L45" s="2">
-        <f t="shared" ref="L45:L72" si="11">IF(J45=2,O44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" ref="M45:M72" si="12">IF(J45&gt;=0,K45+L45,J45*P44)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" ref="N45:N72" si="13">IF(J45&gt;=0,H45*2-K45-L45,IF(J45&gt;=0,0,-J45*P44))</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" ref="O45:O72" si="14">IF(A45,O44+N45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" ref="P45:P72" si="15">IF(A45,IF(J45&gt;=0,M45+P44,P44+J45*P44),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
+      <c r="L46" s="4">
+        <f t="shared" ref="L46:L73" si="13">IF(J46=2,O45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46:M73" si="14">IF(J46&gt;=0,K46+L46,J46*P45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" ref="N46:N73" si="15">IF(J46&gt;=0,H46*2-K46-L46,IF(J46&gt;=0,0,-J46*P45))</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" ref="O46:O73" si="16">IF(A46,O45+N46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" ref="P46:P73" si="17">IF(A46,IF(J46&gt;=0,M46+P45,P45+J46*P45),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="2">
+      <c r="G47" s="2"/>
+      <c r="H47" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="2">
+      <c r="I47" s="2"/>
+      <c r="J47" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K47" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L46" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
+      <c r="L47" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O46" s="2">
+      <c r="M47" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P46" s="2">
+      <c r="N47" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
+      <c r="O47" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="2">
+      <c r="G48" s="2"/>
+      <c r="H48" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="2">
+      <c r="I48" s="2"/>
+      <c r="J48" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K48" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L47" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="L48" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O47" s="2">
+      <c r="M48" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P47" s="2">
+      <c r="N48" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
+      <c r="O48" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="2">
+      <c r="G49" s="2"/>
+      <c r="H49" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="2">
+      <c r="I49" s="2"/>
+      <c r="J49" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K49" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L48" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
+      <c r="L49" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O48" s="2">
+      <c r="M49" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P48" s="2">
+      <c r="N49" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
+      <c r="O49" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="2">
+      <c r="G50" s="2"/>
+      <c r="H50" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="2">
+      <c r="I50" s="2"/>
+      <c r="J50" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K50" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L49" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
+      <c r="L50" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O49" s="2">
+      <c r="M50" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P49" s="2">
+      <c r="N50" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
+      <c r="O50" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="2">
+      <c r="G51" s="2"/>
+      <c r="H51" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="2">
+      <c r="I51" s="2"/>
+      <c r="J51" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K51" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L50" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
+      <c r="L51" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O50" s="2">
+      <c r="M51" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P50" s="2">
+      <c r="N51" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
+      <c r="O51" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="2">
+      <c r="G52" s="2"/>
+      <c r="H52" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="2">
+      <c r="I52" s="2"/>
+      <c r="J52" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K52" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L51" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
+      <c r="L52" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O51" s="2">
+      <c r="M52" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P51" s="2">
+      <c r="N52" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
+      <c r="O52" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F53" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="2">
+      <c r="G53" s="2"/>
+      <c r="H53" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="2">
+      <c r="I53" s="2"/>
+      <c r="J53" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L52" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="L53" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O52" s="2">
+      <c r="M53" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P52" s="2">
+      <c r="N53" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
+      <c r="O53" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="2">
+      <c r="G54" s="2"/>
+      <c r="H54" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="2">
+      <c r="I54" s="2"/>
+      <c r="J54" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K54" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L53" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
+      <c r="L54" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O53" s="2">
+      <c r="M54" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P53" s="2">
+      <c r="N54" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
+      <c r="O54" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F55" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="2">
+      <c r="G55" s="2"/>
+      <c r="H55" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="2">
+      <c r="I55" s="2"/>
+      <c r="J55" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K55" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L54" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
+      <c r="L55" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O54" s="2">
+      <c r="M55" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P54" s="2">
+      <c r="N55" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
+      <c r="O55" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F56" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="2">
+      <c r="G56" s="2"/>
+      <c r="H56" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="2">
+      <c r="I56" s="2"/>
+      <c r="J56" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K56" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L55" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="L56" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O55" s="2">
+      <c r="M56" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P55" s="2">
+      <c r="N56" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
+      <c r="O56" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E57" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F57" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="2">
+      <c r="G57" s="2"/>
+      <c r="H57" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="2">
+      <c r="I57" s="2"/>
+      <c r="J57" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K57" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L56" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="L57" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O56" s="2">
+      <c r="M57" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P56" s="2">
+      <c r="N57" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="O57" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E58" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F58" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="2">
+      <c r="G58" s="2"/>
+      <c r="H58" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="2">
+      <c r="I58" s="2"/>
+      <c r="J58" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K58" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L57" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
+      <c r="L58" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O57" s="2">
+      <c r="M58" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P57" s="2">
+      <c r="N58" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
+      <c r="O58" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E59" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F59" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="2">
+      <c r="G59" s="2"/>
+      <c r="H59" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="2">
+      <c r="I59" s="2"/>
+      <c r="J59" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K59" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L58" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
+      <c r="L59" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O58" s="2">
+      <c r="M59" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P58" s="2">
+      <c r="N59" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="O59" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F60" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="2">
+      <c r="G60" s="2"/>
+      <c r="H60" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="2">
+      <c r="I60" s="2"/>
+      <c r="J60" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K60" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L59" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="L60" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O59" s="2">
+      <c r="M60" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P59" s="2">
+      <c r="N60" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="O60" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F61" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="2">
+      <c r="G61" s="2"/>
+      <c r="H61" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="2">
+      <c r="I61" s="2"/>
+      <c r="J61" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K61" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L60" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
+      <c r="L61" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O60" s="2">
+      <c r="M61" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P60" s="2">
+      <c r="N61" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
+      <c r="O61" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F62" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="2">
+      <c r="G62" s="2"/>
+      <c r="H62" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="2">
+      <c r="I62" s="2"/>
+      <c r="J62" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K62" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L61" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
+      <c r="L62" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O61" s="2">
+      <c r="M62" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P61" s="2">
+      <c r="N62" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2">
+      <c r="O62" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F63" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="2">
+      <c r="G63" s="2"/>
+      <c r="H63" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="2">
+      <c r="I63" s="2"/>
+      <c r="J63" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K63" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L62" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
+      <c r="L63" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O62" s="2">
+      <c r="M63" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P62" s="2">
+      <c r="N63" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2">
+      <c r="O63" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="2">
+      <c r="G64" s="2"/>
+      <c r="H64" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="2">
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K64" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L63" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="2">
+      <c r="L64" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O63" s="2">
+      <c r="M64" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P63" s="2">
+      <c r="N64" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
+      <c r="O64" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F65" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="2">
+      <c r="G65" s="2"/>
+      <c r="H65" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="2">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K65" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L64" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="L65" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O64" s="2">
+      <c r="M65" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P64" s="2">
+      <c r="N65" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2">
+      <c r="O65" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F66" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="2">
+      <c r="G66" s="2"/>
+      <c r="H66" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="2">
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K66" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L65" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="L66" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O65" s="2">
+      <c r="M66" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P65" s="2">
+      <c r="N66" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
+      <c r="O66" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="2">
+      <c r="G67" s="2"/>
+      <c r="H67" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="2">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K67" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L66" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="2">
+      <c r="L67" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O66" s="2">
+      <c r="M67" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P66" s="2">
+      <c r="N67" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
+      <c r="O67" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F68" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="2">
+      <c r="G68" s="2"/>
+      <c r="H68" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="2">
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K68" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L67" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="2">
+      <c r="L68" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O67" s="2">
+      <c r="M68" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P67" s="2">
+      <c r="N68" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2">
+      <c r="O68" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="2">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K69" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L68" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="2">
+      <c r="L69" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O68" s="2">
+      <c r="M69" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P68" s="2">
+      <c r="N69" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
+      <c r="O69" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F70" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="2">
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K70" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L69" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="2">
+      <c r="L70" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O69" s="2">
+      <c r="M70" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P69" s="2">
+      <c r="N70" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
+      <c r="O70" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="2">
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K71" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L70" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
+      <c r="L71" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O70" s="2">
+      <c r="M71" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P70" s="2">
+      <c r="N71" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
+      <c r="O71" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F72" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="2">
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K72" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L71" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="L72" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O71" s="2">
+      <c r="M72" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P71" s="2">
+      <c r="N72" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2">
+      <c r="O72" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F73" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="2">
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K73" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L72" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
+      <c r="L73" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O72" s="2">
+      <c r="M73" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P72" s="2">
+      <c r="N73" s="4">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A10 C1:C9 C11:C1048576" name="新增存款"/>
-    <protectedRange sqref="B1:B1048576 A1:A9 A11:A1048576" name="定投信息"/>
+    <protectedRange sqref="A11 C1:C10 C12:C1048576" name="新增存款"/>
+    <protectedRange sqref="B1:B1048576 A1:A10 A12:A1048576" name="定投信息"/>
     <protectedRange sqref="I1:I1048576" name="指数温度"/>
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
-  <mergeCells count="25">
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
+  <mergeCells count="26">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="Z11:AE11"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M13:M72">
+  <conditionalFormatting sqref="M14:M73">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -6256,7 +6455,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I72">
+  <conditionalFormatting sqref="I14:I73">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6268,7 +6467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O9 O11:O1048576">
+  <conditionalFormatting sqref="O12:O1048576 O1:O10">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6282,7 +6481,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P9 P11:P1048576">
+  <conditionalFormatting sqref="P12:P1048576 P1:P10">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -6296,7 +6495,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N9 N11:N1048576">
+  <conditionalFormatting sqref="N12:N1048576 N1:N10">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -6310,7 +6509,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K9 K11:K1048576">
+  <conditionalFormatting sqref="K12:K1048576 K1:K10">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -6324,7 +6523,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:W13">
+  <conditionalFormatting sqref="V14:W14">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -6338,7 +6537,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
+  <conditionalFormatting sqref="R14">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -6352,7 +6551,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
+  <conditionalFormatting sqref="S14">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6364,7 +6563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U13">
+  <conditionalFormatting sqref="U14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6378,7 +6577,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
+  <conditionalFormatting sqref="X14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6390,7 +6589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X12">
+  <conditionalFormatting sqref="V12:X13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6421,7 +6620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M13:M72</xm:sqref>
+          <xm:sqref>M14:M73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{158EB98C-D73B-4780-B973-017C1CA10A3E}">
@@ -6434,7 +6633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O1:O9 O11:O1048576</xm:sqref>
+          <xm:sqref>O12:O1048576 O1:O10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0829BEA7-CF40-4BC8-9C31-ADE375B5E5BD}">
@@ -6447,7 +6646,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P1:P9 P11:P1048576</xm:sqref>
+          <xm:sqref>P12:P1048576 P1:P10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5183630E-C93D-42D1-A3B8-CA7390713A1B}">
@@ -6460,7 +6659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N1:N9 N11:N1048576</xm:sqref>
+          <xm:sqref>N12:N1048576 N1:N10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4453E183-5155-4655-A6DA-15CFBEEE45EB}">
@@ -6473,7 +6672,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K1:K9 K11:K1048576</xm:sqref>
+          <xm:sqref>K12:K1048576 K1:K10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD578D42-D248-41E6-8867-171419E0C1B3}">
@@ -6486,7 +6685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V13:W13</xm:sqref>
+          <xm:sqref>V14:W14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0EEB6D76-E200-49CC-8648-E25CB89357F3}">
@@ -6499,7 +6698,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R13</xm:sqref>
+          <xm:sqref>R14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{385EE4F0-590B-464E-9258-7E3CD62EEE09}">
@@ -6512,7 +6711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U13</xm:sqref>
+          <xm:sqref>U14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{650EE246-9804-4F32-8644-29A83D9BA5A5}">
@@ -6525,7 +6724,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V11:X12</xm:sqref>
+          <xm:sqref>V12:X13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09F256-6194-42DB-94AA-4D82825969AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D948EAB-4114-448E-BF06-5B7315A27BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内部收益率/%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>净现金流现值/元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,7 +174,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.《内部收益率》计算方法：输入《日期》及《剩余持仓金额》；使用数据-预测-模拟分析-单变量求解计算内部收益率，目标单元格：当前日期的《累计现值》，目标值：0，可变单元格：AE14。</t>
+    <t>年化收益率/%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.《年化收益率》即内部收益率，计算方法：输入《日期》及《剩余持仓金额》；使用数据-预测-模拟分析-单变量求解计算内部收益率，目标单元格：当前日期的《累计现值》，目标值：0，可变单元格：AE14。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +189,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="183" formatCode="yyyy\.m\.d"/>
+    <numFmt numFmtId="178" formatCode="yyyy\.m\.d"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -288,40 +288,19 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -332,6 +311,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2939,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE73"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3018,167 +3018,167 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="12" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="12" t="s">
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE12" s="23" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="13" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3289,35 +3289,38 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
       <c r="B15" s="10">
         <v>44670</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <f t="shared" ref="D15:D73" si="5">IF(A15,C15+F14,0)</f>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E73" si="6">IF(D15=0,0,IF(C15,D15*0.05,E14))</f>
-        <v>0</v>
+        <f>IF(D15=0,0,IF(C15,D15*0.05,E14))</f>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:F73" si="7">D15-E15</f>
-        <v>0</v>
+        <f t="shared" ref="F15:F73" si="6">D15-E15</f>
+        <v>450</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f t="shared" ref="H15:H73" si="8">0.5*(E15+G15)</f>
-        <v>0</v>
+        <f t="shared" ref="H15:H73" si="7">0.5*(E15+G15)</f>
+        <v>12.5</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="4">
-        <f t="shared" ref="J15:J73" si="9">IF(A15,_xlfn.IFS(I15&lt;10,2,I15&lt;20,1.8,I15&lt;30,1.6,I15&lt;40,1.4,I15&lt;50,1.2,I15=50,1,I15&lt;60,0.8,I15&lt;70,-0.5,I15&lt;80,-0.5,I15&lt;90,-0.5,I15&lt;=100,-1),0)</f>
-        <v>0</v>
+        <f t="shared" ref="J15:J73" si="8">IF(A15,_xlfn.IFS(I15&lt;10,2,I15&lt;20,1.8,I15&lt;30,1.6,I15&lt;40,1.4,I15&lt;50,1.2,I15=50,1,I15&lt;60,0.8,I15&lt;70,-0.5,I15&lt;80,-0.5,I15&lt;90,-0.5,I15&lt;=100,-1),0)</f>
+        <v>2</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" ref="K15:K73" si="10">IF(J15&lt;0,0,H15*J15)</f>
-        <v>0</v>
+        <f t="shared" ref="K15:K73" si="9">IF(J15&lt;0,0,H15*J15)</f>
+        <v>25</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
@@ -3325,7 +3328,7 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="2"/>
@@ -3337,7 +3340,7 @@
       </c>
       <c r="P15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="5"/>
@@ -3345,7 +3348,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="Z15" s="4">
-        <f t="shared" ref="Z15:Z16" si="11">-R15</f>
+        <f t="shared" ref="Z15:Z16" si="10">-R15</f>
         <v>0</v>
       </c>
       <c r="AA15" s="4">
@@ -3360,7 +3363,7 @@
         <v>525.00006773304256</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" ref="AD15:AD16" si="12">AD14+AA15+AC15</f>
+        <f t="shared" ref="AD15:AD16" si="11">AD14+AA15+AC15</f>
         <v>6.7733042556028522E-5</v>
       </c>
     </row>
@@ -3373,25 +3376,25 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" ref="E16:E73" si="12">IF(D16=0,0,IF(C16,D16*0.05,E15))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L16" s="4">
@@ -3420,7 +3423,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="Z16" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA16" s="4">
@@ -3430,12 +3433,11 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.7733042556028522E-5</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -3443,25 +3445,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L17" s="4">
@@ -3494,7 +3496,6 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
       <c r="B18" s="10"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -3502,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
@@ -3561,25 +3562,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
@@ -3612,7 +3613,6 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
       <c r="B20" s="10"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
@@ -3620,25 +3620,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
@@ -3671,7 +3671,6 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
@@ -3679,25 +3678,25 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L21" s="4">
@@ -3738,25 +3737,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L22" s="4">
@@ -3789,7 +3788,6 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
       <c r="B23" s="10"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4">
@@ -3797,25 +3795,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="4">
@@ -3848,7 +3846,6 @@
       <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
       <c r="B24" s="10"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
@@ -3856,25 +3853,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L24" s="4">
@@ -3915,25 +3912,25 @@
         <v>0</v>
       </c>
       <c r="E25" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L25" s="4">
@@ -3958,7 +3955,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="10"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
@@ -3966,25 +3963,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L26" s="4">
@@ -4009,7 +4006,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="10"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
@@ -4017,25 +4014,25 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L27" s="4">
@@ -4068,25 +4065,25 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L28" s="4">
@@ -4111,7 +4108,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
@@ -4119,25 +4116,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L29" s="4">
@@ -4162,7 +4159,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
@@ -4170,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L30" s="4">
@@ -4221,25 +4218,25 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L31" s="4">
@@ -4264,7 +4261,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
@@ -4272,25 +4269,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L32" s="4">
@@ -4315,7 +4312,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
@@ -4323,25 +4320,25 @@
         <v>0</v>
       </c>
       <c r="E33" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L33" s="4">
@@ -4366,7 +4363,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
@@ -4374,25 +4371,25 @@
         <v>0</v>
       </c>
       <c r="E34" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L34" s="4">
@@ -4417,7 +4414,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="10"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
@@ -4425,25 +4422,25 @@
         <v>0</v>
       </c>
       <c r="E35" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L35" s="4">
@@ -4468,7 +4465,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="10"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
@@ -4476,25 +4473,25 @@
         <v>0</v>
       </c>
       <c r="E36" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L36" s="4">
@@ -4519,7 +4516,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
@@ -4527,25 +4524,25 @@
         <v>0</v>
       </c>
       <c r="E37" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L37" s="4">
@@ -4570,7 +4567,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="10"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4">
@@ -4578,25 +4575,25 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L38" s="4">
@@ -4621,7 +4618,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4">
@@ -4629,25 +4626,25 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L39" s="4">
@@ -4672,7 +4669,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="10"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4">
@@ -4680,25 +4677,25 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L40" s="4">
@@ -4723,7 +4720,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4">
@@ -4731,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L41" s="4">
@@ -4774,7 +4771,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4">
@@ -4782,25 +4779,25 @@
         <v>0</v>
       </c>
       <c r="E42" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L42" s="4">
@@ -4825,7 +4822,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="10"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4">
@@ -4833,25 +4830,25 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L43" s="4">
@@ -4876,7 +4873,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="10"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
@@ -4884,25 +4881,25 @@
         <v>0</v>
       </c>
       <c r="E44" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L44" s="4">
@@ -4927,7 +4924,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="10"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4">
@@ -4935,25 +4932,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L45" s="4">
@@ -4986,25 +4983,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L46" s="4">
@@ -5037,25 +5034,25 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L47" s="4">
@@ -5088,25 +5085,25 @@
         <v>0</v>
       </c>
       <c r="E48" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L48" s="4">
@@ -5139,25 +5136,25 @@
         <v>0</v>
       </c>
       <c r="E49" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L49" s="4">
@@ -5190,25 +5187,25 @@
         <v>0</v>
       </c>
       <c r="E50" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L50" s="4">
@@ -5241,25 +5238,25 @@
         <v>0</v>
       </c>
       <c r="E51" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L51" s="4">
@@ -5292,25 +5289,25 @@
         <v>0</v>
       </c>
       <c r="E52" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L52" s="4">
@@ -5343,25 +5340,25 @@
         <v>0</v>
       </c>
       <c r="E53" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L53" s="4">
@@ -5394,25 +5391,25 @@
         <v>0</v>
       </c>
       <c r="E54" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L54" s="4">
@@ -5445,25 +5442,25 @@
         <v>0</v>
       </c>
       <c r="E55" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L55" s="4">
@@ -5496,25 +5493,25 @@
         <v>0</v>
       </c>
       <c r="E56" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L56" s="4">
@@ -5547,25 +5544,25 @@
         <v>0</v>
       </c>
       <c r="E57" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L57" s="4">
@@ -5598,25 +5595,25 @@
         <v>0</v>
       </c>
       <c r="E58" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L58" s="4">
@@ -5649,25 +5646,25 @@
         <v>0</v>
       </c>
       <c r="E59" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L59" s="4">
@@ -5700,25 +5697,25 @@
         <v>0</v>
       </c>
       <c r="E60" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L60" s="4">
@@ -5751,25 +5748,25 @@
         <v>0</v>
       </c>
       <c r="E61" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L61" s="4">
@@ -5802,25 +5799,25 @@
         <v>0</v>
       </c>
       <c r="E62" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L62" s="4">
@@ -5853,25 +5850,25 @@
         <v>0</v>
       </c>
       <c r="E63" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L63" s="4">
@@ -5904,25 +5901,25 @@
         <v>0</v>
       </c>
       <c r="E64" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L64" s="4">
@@ -5955,25 +5952,25 @@
         <v>0</v>
       </c>
       <c r="E65" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L65" s="4">
@@ -6006,25 +6003,25 @@
         <v>0</v>
       </c>
       <c r="E66" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L66" s="4">
@@ -6057,25 +6054,25 @@
         <v>0</v>
       </c>
       <c r="E67" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L67" s="4">
@@ -6108,25 +6105,25 @@
         <v>0</v>
       </c>
       <c r="E68" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L68" s="4">
@@ -6159,25 +6156,25 @@
         <v>0</v>
       </c>
       <c r="E69" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L69" s="4">
@@ -6210,25 +6207,25 @@
         <v>0</v>
       </c>
       <c r="E70" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L70" s="4">
@@ -6261,25 +6258,25 @@
         <v>0</v>
       </c>
       <c r="E71" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L71" s="4">
@@ -6312,25 +6309,25 @@
         <v>0</v>
       </c>
       <c r="E72" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L72" s="4">
@@ -6363,25 +6360,25 @@
         <v>0</v>
       </c>
       <c r="E73" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L73" s="4">
@@ -6404,6 +6401,9 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B74" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6413,10 +6413,6 @@
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
   <mergeCells count="26">
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Z11:AE11"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="V12:V13"/>
@@ -6434,6 +6430,10 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="R11:X11"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="S12:S13"/>

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D948EAB-4114-448E-BF06-5B7315A27BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B7BAA-98ED-4796-A33E-D02537F456FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
     <t>7.《年化收益率》即内部收益率，计算方法：输入《日期》及《剩余持仓金额》；使用数据-预测-模拟分析-单变量求解计算内部收益率，目标单元格：当前日期的《累计现值》，目标值：0，可变单元格：AE14。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,9 +298,6 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,8 +313,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,17 +337,8 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2941,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2972,7 +2979,7 @@
     <col min="25" max="25" width="9" style="6"/>
     <col min="26" max="26" width="17.75" style="6" customWidth="1"/>
     <col min="27" max="29" width="22.125" style="7" customWidth="1"/>
-    <col min="30" max="30" width="17.75" style="6" customWidth="1"/>
+    <col min="30" max="30" width="17.75" style="7" customWidth="1"/>
     <col min="31" max="31" width="18" style="6" customWidth="1"/>
     <col min="32" max="16384" width="9" style="6"/>
   </cols>
@@ -3016,6 +3023,7 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="Z9" s="24"/>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
@@ -3036,7 +3044,7 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="17" t="s">
         <v>30</v>
       </c>
@@ -3046,7 +3054,7 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="17" t="s">
         <v>37</v>
       </c>
@@ -3057,128 +3065,128 @@
       <c r="AE11" s="17"/>
     </row>
     <row r="12" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="18" t="s">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13" t="s">
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AC12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AD12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="12"/>
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3285,7 +3293,7 @@
         <v>-525</v>
       </c>
       <c r="AE14" s="1">
-        <v>22.86269665982665</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3293,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <v>44670</v>
+        <v>44694</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -3308,19 +3316,23 @@
         <f t="shared" ref="F15:F73" si="6">D15-E15</f>
         <v>450</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>500</v>
+      </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:H73" si="7">0.5*(E15+G15)</f>
-        <v>12.5</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>262.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.3</v>
+      </c>
       <c r="J15" s="4">
         <f t="shared" ref="J15:J73" si="8">IF(A15,_xlfn.IFS(I15&lt;10,2,I15&lt;20,1.8,I15&lt;30,1.6,I15&lt;40,1.4,I15&lt;50,1.2,I15=50,1,I15&lt;60,0.8,I15&lt;70,-0.5,I15&lt;80,-0.5,I15&lt;90,-0.5,I15&lt;=100,-1),0)</f>
         <v>2</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15:K73" si="9">IF(J15&lt;0,0,H15*J15)</f>
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
@@ -3328,7 +3340,7 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="2"/>
@@ -3340,62 +3352,83 @@
       </c>
       <c r="P15" s="4">
         <f t="shared" si="4"/>
-        <v>550</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+        <v>1050</v>
+      </c>
+      <c r="R15" s="4">
+        <v>525</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1.5494000000000001</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" ref="U15:U39" si="10">(R15-T15)/S15</f>
+        <v>338.4342326061701</v>
+      </c>
+      <c r="V15" s="4">
+        <f>R15+V14</f>
+        <v>1050</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" ref="W15:W39" si="11">U15+W14</f>
+        <v>664.39308136603836</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" ref="X15:X39" si="12">V15/W15</f>
+        <v>1.5803897262763891</v>
+      </c>
       <c r="Z15" s="4">
-        <f t="shared" ref="Z15:Z16" si="10">-R15</f>
-        <v>0</v>
+        <f>-R15</f>
+        <v>-525</v>
       </c>
       <c r="AA15" s="4">
         <f>Z15/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>526.78</v>
+        <v>-547.51175418892205</v>
       </c>
       <c r="AC15" s="4">
-        <f>AB15/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
-        <v>525.00006773304256</v>
+        <f>AB16/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
+        <v>1072.4347377193067</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" ref="AD15:AD16" si="11">AD14+AA15+AC15</f>
-        <v>6.7733042556028522E-5</v>
+        <f t="shared" ref="AD15:AD16" si="13">AD14+AA15+AC15</f>
+        <v>-7.7016469615500682E-2</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44698</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:E73" si="12">IF(D16=0,0,IF(C16,D16*0.05,E15))</f>
-        <v>0</v>
+        <f t="shared" ref="E16:E73" si="14">IF(D16=0,0,IF(C16,D16*0.05,E15))</f>
+        <v>25</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
@@ -3403,7 +3436,7 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="2"/>
@@ -3415,29 +3448,45 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="U16" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" ref="V15:V39" si="15">R16+V15</f>
+        <v>1050</v>
+      </c>
+      <c r="W16" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Z16" s="4">
-        <f t="shared" si="10"/>
+        <f>-R16</f>
         <v>0</v>
       </c>
       <c r="AA16" s="4">
         <f>Z16/((1+$AE$14/100)^(_xlfn.DAYS(B16,$B$14)/365))</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="4"/>
+      <c r="AB16" s="4">
+        <v>1028.3399999999999</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4">
-        <f t="shared" si="11"/>
-        <v>6.7733042556028522E-5</v>
+        <f>AD15+AA16+AC16</f>
+        <v>-7.7016469615500682E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -3445,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -3489,13 +3538,28 @@
       <c r="R17" s="4"/>
       <c r="S17" s="5"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="U17" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W17" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -3503,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F18" s="4">
@@ -3547,13 +3611,28 @@
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="U18" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W18" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
       <c r="C19" s="4"/>
@@ -3562,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -3603,16 +3682,31 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="5"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="U19" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W19" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
@@ -3620,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
@@ -3664,13 +3758,28 @@
       <c r="R20" s="4"/>
       <c r="S20" s="5"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="U20" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W20" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
@@ -3678,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -3722,13 +3831,28 @@
       <c r="R21" s="4"/>
       <c r="S21" s="5"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="U21" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W21" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="4"/>
@@ -3737,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
@@ -3781,13 +3905,28 @@
       <c r="R22" s="4"/>
       <c r="S22" s="5"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="U22" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W22" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4">
@@ -3795,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
@@ -3839,13 +3978,28 @@
       <c r="R23" s="4"/>
       <c r="S23" s="5"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="U23" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W23" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:29" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
@@ -3853,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
@@ -3897,13 +4051,28 @@
       <c r="R24" s="4"/>
       <c r="S24" s="5"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="U24" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W24" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
       <c r="C25" s="4"/>
@@ -3912,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
@@ -3953,8 +4122,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W25" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="10"/>
       <c r="C26" s="4"/>
@@ -3963,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
@@ -4004,8 +4192,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W26" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="10"/>
       <c r="C27" s="4"/>
@@ -4014,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
@@ -4055,8 +4262,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W27" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="10"/>
       <c r="C28" s="4"/>
@@ -4065,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
@@ -4106,8 +4332,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W28" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
@@ -4116,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F29" s="4">
@@ -4157,8 +4402,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="4"/>
@@ -4167,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F30" s="4">
@@ -4208,8 +4472,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W30" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
       <c r="C31" s="4"/>
@@ -4218,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F31" s="4">
@@ -4259,8 +4542,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W31" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4"/>
@@ -4269,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F32" s="4">
@@ -4310,8 +4615,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W32" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4"/>
@@ -4320,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F33" s="4">
@@ -4361,8 +4685,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W33" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="4"/>
@@ -4371,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F34" s="4">
@@ -4412,8 +4755,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W34" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="10"/>
       <c r="C35" s="4"/>
@@ -4422,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F35" s="4">
@@ -4463,8 +4825,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W35" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="10"/>
       <c r="C36" s="4"/>
@@ -4473,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F36" s="4">
@@ -4514,8 +4895,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W36" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
@@ -4524,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F37" s="4">
@@ -4565,8 +4965,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W37" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="10"/>
       <c r="C38" s="4"/>
@@ -4575,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F38" s="4">
@@ -4616,8 +5035,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W38" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
@@ -4626,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F39" s="4">
@@ -4667,8 +5105,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" s="4">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+      <c r="W39" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="10"/>
       <c r="C40" s="4"/>
@@ -4677,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F40" s="4">
@@ -4719,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
@@ -4728,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F41" s="4">
@@ -4770,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="4"/>
@@ -4779,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F42" s="4">
@@ -4821,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="10"/>
       <c r="C43" s="4"/>
@@ -4830,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F43" s="4">
@@ -4872,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="10"/>
       <c r="C44" s="4"/>
@@ -4881,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F44" s="4">
@@ -4923,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="10"/>
       <c r="C45" s="4"/>
@@ -4932,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F45" s="4">
@@ -4974,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="10"/>
       <c r="C46" s="4"/>
@@ -4983,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F46" s="4">
@@ -5005,27 +5462,27 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" ref="L46:L73" si="13">IF(J46=2,O45,0)</f>
+        <f t="shared" ref="L46:L73" si="16">IF(J46=2,O45,0)</f>
         <v>0</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" ref="M46:M73" si="14">IF(J46&gt;=0,K46+L46,J46*P45)</f>
+        <f t="shared" ref="M46:M73" si="17">IF(J46&gt;=0,K46+L46,J46*P45)</f>
         <v>0</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" ref="N46:N73" si="15">IF(J46&gt;=0,H46*2-K46-L46,IF(J46&gt;=0,0,-J46*P45))</f>
+        <f t="shared" ref="N46:N73" si="18">IF(J46&gt;=0,H46*2-K46-L46,IF(J46&gt;=0,0,-J46*P45))</f>
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" ref="O46:O73" si="16">IF(A46,O45+N46,0)</f>
+        <f t="shared" ref="O46:O73" si="19">IF(A46,O45+N46,0)</f>
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" ref="P46:P73" si="17">IF(A46,IF(J46&gt;=0,M46+P45,P45+J46*P45),0)</f>
+        <f t="shared" ref="P46:P73" si="20">IF(A46,IF(J46&gt;=0,M46+P45,P45+J46*P45),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="10"/>
       <c r="C47" s="4"/>
@@ -5034,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F47" s="4">
@@ -5056,27 +5513,27 @@
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="10"/>
       <c r="C48" s="4"/>
@@ -5085,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F48" s="4">
@@ -5107,23 +5564,23 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5136,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F49" s="4">
@@ -5158,23 +5615,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5187,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F50" s="4">
@@ -5209,23 +5666,23 @@
         <v>0</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5238,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F51" s="4">
@@ -5260,23 +5717,23 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5289,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F52" s="4">
@@ -5311,23 +5768,23 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5340,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F53" s="4">
@@ -5362,23 +5819,23 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5391,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F54" s="4">
@@ -5413,23 +5870,23 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F55" s="4">
@@ -5464,23 +5921,23 @@
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5493,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F56" s="4">
@@ -5515,23 +5972,23 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5544,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F57" s="4">
@@ -5566,23 +6023,23 @@
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F58" s="4">
@@ -5617,23 +6074,23 @@
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5646,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F59" s="4">
@@ -5668,23 +6125,23 @@
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5697,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F60" s="4">
@@ -5719,23 +6176,23 @@
         <v>0</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5748,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F61" s="4">
@@ -5770,23 +6227,23 @@
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5799,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F62" s="4">
@@ -5821,23 +6278,23 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5850,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F63" s="4">
@@ -5872,23 +6329,23 @@
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5901,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F64" s="4">
@@ -5923,23 +6380,23 @@
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -5952,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F65" s="4">
@@ -5974,23 +6431,23 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6003,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F66" s="4">
@@ -6025,23 +6482,23 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F67" s="4">
@@ -6076,23 +6533,23 @@
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6105,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F68" s="4">
@@ -6127,23 +6584,23 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F69" s="4">
@@ -6178,23 +6635,23 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6207,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F70" s="4">
@@ -6229,23 +6686,23 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6258,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F71" s="4">
@@ -6280,23 +6737,23 @@
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6309,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F72" s="4">
@@ -6331,23 +6788,23 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6360,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F73" s="4">
@@ -6382,23 +6839,23 @@
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6413,6 +6870,16 @@
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
   <mergeCells count="26">
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Z11:AE11"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="V12:V13"/>
@@ -6429,20 +6896,10 @@
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M14:M73">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6456,7 +6913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I73">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6468,7 +6925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O1048576 O1:O10">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6482,7 +6939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P1048576 P1:P10">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6496,7 +6953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N1048576 N1:N10">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6510,7 +6967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K1048576 K1:K10">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6523,8 +6980,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14:W14">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="V14:W39">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6537,8 +6994,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="R14:R39">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6551,8 +7008,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="X14:X39">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6563,8 +7020,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
+  <conditionalFormatting sqref="V12:X13">
     <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{650EE246-9804-4F32-8644-29A83D9BA5A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:U39">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6577,8 +7048,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="S14:S39">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6587,20 +7058,6 @@
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12:X13">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{650EE246-9804-4F32-8644-29A83D9BA5A5}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,7 +7142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V14:W14</xm:sqref>
+          <xm:sqref>V14:W39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0EEB6D76-E200-49CC-8648-E25CB89357F3}">
@@ -6698,20 +7155,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{385EE4F0-590B-464E-9258-7E3CD62EEE09}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FF00B050"/>
-              <x14:negativeBorderColor rgb="FF00B050"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U14</xm:sqref>
+          <xm:sqref>R14:R39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{650EE246-9804-4F32-8644-29A83D9BA5A5}">
@@ -6726,6 +7170,19 @@
           </x14:cfRule>
           <xm:sqref>V12:X13</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{385EE4F0-590B-464E-9258-7E3CD62EEE09}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:negativeBorderColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U14:U39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/farm.xlsx
+++ b/farm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B7BAA-98ED-4796-A33E-D02537F456FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB1CDD-2E87-4844-8C10-81776E620BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,20 +316,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,8 +328,17 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3023,116 +3023,116 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="24"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="11" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
     </row>
     <row r="12" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="Q12" s="12"/>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="V12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="X12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="Y12" s="12"/>
@@ -3156,30 +3156,30 @@
       </c>
     </row>
     <row r="13" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="13"/>
@@ -3292,9 +3292,6 @@
         <f>AD13+AA14+AC14</f>
         <v>-525</v>
       </c>
-      <c r="AE14" s="1">
-        <v>-40</v>
-      </c>
     </row>
     <row r="15" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3385,24 +3382,22 @@
       </c>
       <c r="AA15" s="4">
         <f>Z15/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
-        <v>-547.51175418892205</v>
+        <v>-525</v>
       </c>
       <c r="AC15" s="4">
         <f>AB16/((1+$AE$14/100)^(_xlfn.DAYS(B15,$B$14)/365))</f>
-        <v>1072.4347377193067</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" ref="AD15:AD16" si="13">AD14+AA15+AC15</f>
-        <v>-7.7016469615500682E-2</v>
+        <f t="shared" ref="AD15" si="13">AD14+AA15+AC15</f>
+        <v>-1050</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="10">
-        <v>44698</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <f t="shared" si="5"/>
@@ -3458,7 +3453,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" ref="V15:V39" si="15">R16+V15</f>
+        <f t="shared" ref="V16:V39" si="15">R16+V15</f>
         <v>1050</v>
       </c>
       <c r="W16" s="4" t="e">
@@ -3469,22 +3464,11 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z16" s="4">
-        <f>-R16</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="4">
-        <f>Z16/((1+$AE$14/100)^(_xlfn.DAYS(B16,$B$14)/365))</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>1028.3399999999999</v>
-      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4">
-        <f>AD15+AA16+AC16</f>
-        <v>-7.7016469615500682E-2</v>
-      </c>
+      <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -6870,16 +6854,6 @@
     <protectedRange sqref="G1:G1048576" name="增量资金"/>
   </protectedRanges>
   <mergeCells count="26">
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="Z11:AE11"/>
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="V12:V13"/>
@@ -6896,6 +6870,16 @@
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M14:M73">
